--- a/global_coord_master.xlsx
+++ b/global_coord_master.xlsx
@@ -1,20 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10210"/>
-  <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/aiden/Desktop/CORONA/dash/"/>
-    </mc:Choice>
-  </mc:AlternateContent>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="7" rupBuild="9302"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="17700" yWindow="2480" windowWidth="20620" windowHeight="16440"/>
+    <workbookView xWindow="17700" yWindow="2475" windowWidth="20625" windowHeight="13740"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="145621"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -24,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="198" uniqueCount="96">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="231" uniqueCount="107">
   <si>
     <t>Hubei</t>
   </si>
@@ -312,17 +307,51 @@
   </si>
   <si>
     <t>South Australia</t>
+  </si>
+  <si>
+    <t>Boston, MA</t>
+  </si>
+  <si>
+    <t>Los Angeles, CA</t>
+  </si>
+  <si>
+    <t>Orange, CA</t>
+  </si>
+  <si>
+    <t>Seattle, WA</t>
+  </si>
+  <si>
+    <t>Tempe, AZ</t>
+  </si>
+  <si>
+    <t>Chicago, IL</t>
+  </si>
+  <si>
+    <t>Santa Clara, CA</t>
+  </si>
+  <si>
+    <t>Toronto, ON</t>
+  </si>
+  <si>
+    <t>San Benito, CA</t>
+  </si>
+  <si>
+    <t>London, ON</t>
+  </si>
+  <si>
+    <t>CA</t>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="맑은 고딕"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -331,6 +360,33 @@
       <color rgb="FF000000"/>
       <name val="Arial"/>
       <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="맑은 고딕"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF222222"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="맑은 고딕"/>
+      <family val="2"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -350,15 +406,24 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal 2" xfId="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -416,7 +481,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -468,7 +533,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -662,7 +727,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -670,1140 +735,1328 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E66"/>
+  <dimension ref="A1:E77"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
-      <selection activeCell="A64" sqref="A64"/>
+    <sheetView tabSelected="1" topLeftCell="A48" workbookViewId="0">
+      <selection activeCell="A76" sqref="A76"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="17.25" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A1" t="s">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="C1">
+      <c r="C1" s="1">
         <v>-25.274398000000001</v>
       </c>
-      <c r="D1">
+      <c r="D1" s="1">
         <v>133.775136</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" s="1" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A2" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="C2">
-        <v>-25.274398000000001</v>
-      </c>
-      <c r="D2">
-        <v>133.775136</v>
-      </c>
-      <c r="E2" t="s">
+      <c r="C2" s="2">
+        <v>-31.840233000000001</v>
+      </c>
+      <c r="D2" s="2">
+        <v>145.61279300000001</v>
+      </c>
+      <c r="E2" s="1" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A3" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B3" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="C3">
-        <v>-25.274398000000001</v>
-      </c>
-      <c r="D3">
-        <v>133.775136</v>
-      </c>
-      <c r="E3" t="s">
+      <c r="C3" s="1">
+        <v>-37.840935000000002</v>
+      </c>
+      <c r="D3" s="1">
+        <v>144.94645700000001</v>
+      </c>
+      <c r="E3" s="1" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A4" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B4" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="C4">
-        <v>-25.274398000000001</v>
-      </c>
-      <c r="D4">
-        <v>133.775136</v>
-      </c>
-      <c r="E4" t="s">
+      <c r="C4" s="1">
+        <v>20.9176</v>
+      </c>
+      <c r="D4" s="1">
+        <v>142.7028</v>
+      </c>
+      <c r="E4" s="1" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A5" t="s">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A5" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B5" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="C5">
+      <c r="C5" s="1">
         <v>12.565678999999999</v>
       </c>
-      <c r="D5">
+      <c r="D5" s="1">
         <v>104.99096299999999</v>
       </c>
-      <c r="E5" t="s">
+      <c r="E5" s="1" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A6" t="s">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A6" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="B6" t="s">
+      <c r="B6" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="C6">
+      <c r="C6" s="1">
         <v>56.130366000000002</v>
       </c>
-      <c r="D6">
+      <c r="D6" s="1">
         <v>-106.346771</v>
       </c>
-      <c r="E6" t="s">
+      <c r="E6" s="1" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A7" t="s">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A7" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="B7" t="s">
+      <c r="B7" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="C7">
+      <c r="C7" s="1">
         <v>56.130366000000002</v>
       </c>
-      <c r="D7">
+      <c r="D7" s="1">
         <v>-106.346771</v>
       </c>
-      <c r="E7" t="s">
+      <c r="E7" s="1" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A8" t="s">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A8" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="B8" t="s">
+      <c r="B8" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="C8">
+      <c r="C8" s="1">
         <v>61.924109999999999</v>
       </c>
-      <c r="D8">
+      <c r="D8" s="1">
         <v>25.748151</v>
       </c>
-      <c r="E8" t="s">
+      <c r="E8" s="1" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A9" t="s">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A9" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="B9" t="s">
+      <c r="B9" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="C9">
+      <c r="C9" s="1">
         <v>46.227637999999999</v>
       </c>
-      <c r="D9">
+      <c r="D9" s="1">
         <v>2.213749</v>
       </c>
-      <c r="E9" t="s">
+      <c r="E9" s="1" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A10" t="s">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A10" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="B10" t="s">
+      <c r="B10" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="C10">
+      <c r="C10" s="1">
         <v>51.165691000000002</v>
       </c>
-      <c r="D10">
+      <c r="D10" s="1">
         <v>10.451525999999999</v>
       </c>
-      <c r="E10" t="s">
+      <c r="E10" s="1" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A11" t="s">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A11" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="B11" t="s">
+      <c r="B11" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="C11">
+      <c r="C11" s="1">
         <v>22.396428</v>
       </c>
-      <c r="D11">
+      <c r="D11" s="1">
         <v>114.109497</v>
       </c>
-      <c r="E11" t="s">
+      <c r="E11" s="1" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A12" t="s">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A12" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="B12" t="s">
+      <c r="B12" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="C12">
+      <c r="C12" s="1">
         <v>20.593684</v>
       </c>
-      <c r="D12">
+      <c r="D12" s="1">
         <v>78.962879999999998</v>
       </c>
-      <c r="E12" t="s">
+      <c r="E12" s="1" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A13" t="s">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A13" s="1" t="s">
         <v>85</v>
       </c>
-      <c r="B13" t="s">
+      <c r="B13" s="1" t="s">
         <v>85</v>
       </c>
-      <c r="C13">
+      <c r="C13" s="1">
         <v>41.871940000000002</v>
       </c>
-      <c r="D13">
+      <c r="D13" s="1">
         <v>12.56738</v>
       </c>
-      <c r="E13" t="s">
+      <c r="E13" s="1" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A14" t="s">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A14" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="B14" t="s">
+      <c r="B14" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="C14">
+      <c r="C14" s="1">
         <v>36.204824000000002</v>
       </c>
-      <c r="D14">
+      <c r="D14" s="1">
         <v>138.25292400000001</v>
       </c>
-      <c r="E14" t="s">
+      <c r="E14" s="1" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A15" t="s">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A15" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="B15" t="s">
+      <c r="B15" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="C15">
+      <c r="C15" s="1">
         <v>22.198744999999999</v>
       </c>
-      <c r="D15">
+      <c r="D15" s="1">
         <v>113.543873</v>
       </c>
-      <c r="E15" t="s">
+      <c r="E15" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A16" t="s">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A16" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B16" t="s">
-        <v>1</v>
-      </c>
-      <c r="C16">
+      <c r="B16" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C16" s="1">
         <v>30.583333</v>
       </c>
-      <c r="D16">
+      <c r="D16" s="1">
         <v>114.266667</v>
       </c>
-      <c r="E16" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A17" t="s">
+      <c r="E16" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A17" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B17" t="s">
-        <v>1</v>
-      </c>
-      <c r="C17">
+      <c r="B17" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C17" s="1">
         <v>23.116667</v>
       </c>
-      <c r="D17">
+      <c r="D17" s="1">
         <v>113.25</v>
       </c>
-      <c r="E17" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A18" t="s">
+      <c r="E17" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A18" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B18" t="s">
-        <v>1</v>
-      </c>
-      <c r="C18">
+      <c r="B18" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C18" s="1">
         <v>30.29365</v>
       </c>
-      <c r="D18">
+      <c r="D18" s="1">
         <v>120.161419</v>
       </c>
-      <c r="E18" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A19" t="s">
+      <c r="E18" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A19" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B19" t="s">
-        <v>1</v>
-      </c>
-      <c r="C19">
+      <c r="B19" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C19" s="1">
         <v>39.928818999999997</v>
       </c>
-      <c r="D19">
+      <c r="D19" s="1">
         <v>116.388869</v>
       </c>
-      <c r="E19" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A20" t="s">
+      <c r="E19" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A20" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B20" t="s">
-        <v>1</v>
-      </c>
-      <c r="C20">
+      <c r="B20" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C20" s="1">
         <v>29.562778000000002</v>
       </c>
-      <c r="D20">
+      <c r="D20" s="1">
         <v>106.552778</v>
       </c>
-      <c r="E20" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A21" t="s">
+      <c r="E20" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A21" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B21" t="s">
-        <v>1</v>
-      </c>
-      <c r="C21">
+      <c r="B21" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C21" s="1">
         <v>28.2</v>
       </c>
-      <c r="D21">
+      <c r="D21" s="1">
         <v>112.966667</v>
       </c>
-      <c r="E21" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A22" t="s">
+      <c r="E21" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A22" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B22" t="s">
-        <v>1</v>
-      </c>
-      <c r="C22">
+      <c r="B22" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C22" s="1">
         <v>23.002700000000001</v>
       </c>
-      <c r="D22">
+      <c r="D22" s="1">
         <v>109.84</v>
       </c>
-      <c r="E22" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A23" t="s">
+      <c r="E22" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A23" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B23" t="s">
-        <v>1</v>
-      </c>
-      <c r="C23">
+      <c r="B23" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C23" s="1">
         <v>31.222221999999999</v>
       </c>
-      <c r="D23">
+      <c r="D23" s="1">
         <v>121.458056</v>
       </c>
-      <c r="E23" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A24" t="s">
+      <c r="E23" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A24" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B24" t="s">
-        <v>1</v>
-      </c>
-      <c r="C24">
+      <c r="B24" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C24" s="1">
         <v>28.655757999999999</v>
       </c>
-      <c r="D24">
+      <c r="D24" s="1">
         <v>115.90504900000001</v>
       </c>
-      <c r="E24" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A25" t="s">
+      <c r="E24" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A25" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B25" t="s">
-        <v>1</v>
-      </c>
-      <c r="C25">
+      <c r="B25" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C25" s="1">
         <v>30.666667</v>
       </c>
-      <c r="D25">
+      <c r="D25" s="1">
         <v>104.066667</v>
       </c>
-      <c r="E25" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A26" t="s">
+      <c r="E25" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A26" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="B26" t="s">
-        <v>1</v>
-      </c>
-      <c r="C26">
+      <c r="B26" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C26" s="1">
         <v>36.790556000000002</v>
       </c>
-      <c r="D26">
+      <c r="D26" s="1">
         <v>118.063333</v>
       </c>
-      <c r="E26" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A27" t="s">
+      <c r="E26" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A27" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="B27" t="s">
-        <v>1</v>
-      </c>
-      <c r="C27">
+      <c r="B27" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C27" s="1">
         <v>31.863889</v>
       </c>
-      <c r="D27">
+      <c r="D27" s="1">
         <v>117.280833</v>
       </c>
-      <c r="E27" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A28" t="s">
+      <c r="E27" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A28" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="B28" t="s">
-        <v>1</v>
-      </c>
-      <c r="C28">
+      <c r="B28" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C28" s="1">
         <v>24.513332999999999</v>
       </c>
-      <c r="D28">
+      <c r="D28" s="1">
         <v>117.655556</v>
       </c>
-      <c r="E28" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A29" t="s">
+      <c r="E28" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A29" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="B29" t="s">
-        <v>1</v>
-      </c>
-      <c r="C29">
+      <c r="B29" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C29" s="1">
         <v>34.683610999999999</v>
       </c>
-      <c r="D29">
+      <c r="D29" s="1">
         <v>113.5325</v>
       </c>
-      <c r="E29" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A30" t="s">
+      <c r="E29" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A30" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="B30" t="s">
-        <v>1</v>
-      </c>
-      <c r="C30">
+      <c r="B30" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C30" s="1">
         <v>32.061667</v>
       </c>
-      <c r="D30">
+      <c r="D30" s="1">
         <v>118.777778</v>
       </c>
-      <c r="E30" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A31" t="s">
+      <c r="E30" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A31" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="B31" t="s">
-        <v>1</v>
-      </c>
-      <c r="C31">
+      <c r="B31" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C31" s="1">
         <v>20.045832999999998</v>
       </c>
-      <c r="D31">
+      <c r="D31" s="1">
         <v>110.341667</v>
       </c>
-      <c r="E31" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A32" t="s">
+      <c r="E31" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A32" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="B32" t="s">
-        <v>1</v>
-      </c>
-      <c r="C32">
+      <c r="B32" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C32" s="1">
         <v>39.142221999999997</v>
       </c>
-      <c r="D32">
+      <c r="D32" s="1">
         <v>117.17666699999999</v>
       </c>
-      <c r="E32" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A33" t="s">
+      <c r="E32" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A33" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="B33" t="s">
-        <v>1</v>
-      </c>
-      <c r="C33">
+      <c r="B33" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C33" s="1">
         <v>25.038889000000001</v>
       </c>
-      <c r="D33">
+      <c r="D33" s="1">
         <v>102.718333</v>
       </c>
-      <c r="E33" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A34" t="s">
+      <c r="E33" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A34" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="B34" t="s">
-        <v>1</v>
-      </c>
-      <c r="C34">
+      <c r="B34" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C34" s="1">
         <v>34.258479000000001</v>
       </c>
-      <c r="D34">
+      <c r="D34" s="1">
         <v>108.924205</v>
       </c>
-      <c r="E34" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A35" t="s">
+      <c r="E34" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A35" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="B35" t="s">
-        <v>1</v>
-      </c>
-      <c r="C35">
+      <c r="B35" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C35" s="1">
         <v>45.75</v>
       </c>
-      <c r="D35">
+      <c r="D35" s="1">
         <v>126.65</v>
       </c>
-      <c r="E35" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A36" t="s">
+      <c r="E35" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A36" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="B36" t="s">
-        <v>1</v>
-      </c>
-      <c r="C36">
+      <c r="B36" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C36" s="1">
         <v>41.792222000000002</v>
       </c>
-      <c r="D36">
+      <c r="D36" s="1">
         <v>123.432778</v>
       </c>
-      <c r="E36" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A37" t="s">
+      <c r="E36" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A37" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="B37" t="s">
-        <v>1</v>
-      </c>
-      <c r="C37">
+      <c r="B37" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C37" s="1">
         <v>26.583333</v>
       </c>
-      <c r="D37">
+      <c r="D37" s="1">
         <v>106.716667</v>
       </c>
-      <c r="E37" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A38" t="s">
+      <c r="E37" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A38" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="B38" t="s">
-        <v>1</v>
-      </c>
-      <c r="C38">
+      <c r="B38" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C38" s="1">
         <v>43.88</v>
       </c>
-      <c r="D38">
+      <c r="D38" s="1">
         <v>125.322778</v>
       </c>
-      <c r="E38" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A39" t="s">
+      <c r="E38" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A39" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="B39" t="s">
-        <v>1</v>
-      </c>
-      <c r="C39">
+      <c r="B39" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C39" s="1">
         <v>38.468055999999997</v>
       </c>
-      <c r="D39">
+      <c r="D39" s="1">
         <v>106.273056</v>
       </c>
-      <c r="E39" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A40" t="s">
+      <c r="E39" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A40" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="B40" t="s">
-        <v>1</v>
-      </c>
-      <c r="C40">
+      <c r="B40" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C40" s="1">
         <v>38.041389000000002</v>
       </c>
-      <c r="D40">
+      <c r="D40" s="1">
         <v>114.478611</v>
       </c>
-      <c r="E40" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A41" t="s">
+      <c r="E40" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A41" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="B41" t="s">
-        <v>1</v>
-      </c>
-      <c r="C41">
+      <c r="B41" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C41" s="1">
         <v>36.057006000000001</v>
       </c>
-      <c r="D41">
+      <c r="D41" s="1">
         <v>103.839868</v>
       </c>
-      <c r="E41" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A42" t="s">
+      <c r="E41" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A42" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="B42" t="s">
-        <v>1</v>
-      </c>
-      <c r="C42">
+      <c r="B42" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C42" s="1">
         <v>43.807347</v>
       </c>
-      <c r="D42">
+      <c r="D42" s="1">
         <v>87.630505999999997</v>
       </c>
-      <c r="E42" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A43" t="s">
+      <c r="E42" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A43" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="B43" t="s">
-        <v>1</v>
-      </c>
-      <c r="C43">
+      <c r="B43" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C43" s="1">
         <v>37.869444000000001</v>
       </c>
-      <c r="D43">
+      <c r="D43" s="1">
         <v>112.560278</v>
       </c>
-      <c r="E43" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A44" t="s">
+      <c r="E43" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A44" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="B44" t="s">
-        <v>1</v>
-      </c>
-      <c r="C44">
+      <c r="B44" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C44" s="1">
         <v>40.652222000000002</v>
       </c>
-      <c r="D44">
+      <c r="D44" s="1">
         <v>109.822222</v>
       </c>
-      <c r="E44" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A45" t="s">
+      <c r="E44" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A45" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="B45" t="s">
-        <v>1</v>
-      </c>
-      <c r="C45">
+      <c r="B45" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C45" s="1">
         <v>36.625540999999998</v>
       </c>
-      <c r="D45">
+      <c r="D45" s="1">
         <v>101.75739</v>
       </c>
-      <c r="E45" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A46" t="s">
+      <c r="E45" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A46" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="B46" t="s">
-        <v>1</v>
-      </c>
-      <c r="C46">
+      <c r="B46" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C46" s="1">
         <v>29.65</v>
       </c>
-      <c r="D46">
+      <c r="D46" s="1">
         <v>91.1</v>
       </c>
-      <c r="E46" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A47" t="s">
+      <c r="E46" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A47" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="B47" t="s">
+      <c r="B47" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="C47">
+      <c r="C47" s="1">
         <v>4.2104840000000001</v>
       </c>
-      <c r="D47">
+      <c r="D47" s="1">
         <v>101.97576599999999</v>
       </c>
-      <c r="E47" t="s">
+      <c r="E47" s="1" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A48" t="s">
+    <row r="48" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A48" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="B48" t="s">
+      <c r="B48" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="C48">
+      <c r="C48" s="1">
         <v>28.394856999999998</v>
       </c>
-      <c r="D48">
+      <c r="D48" s="1">
         <v>84.124008000000003</v>
       </c>
-      <c r="E48" t="s">
+      <c r="E48" s="1" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A49" t="s">
+    <row r="49" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A49" s="1" t="s">
         <v>81</v>
       </c>
-      <c r="B49" t="s">
+      <c r="B49" s="1" t="s">
         <v>81</v>
       </c>
-      <c r="C49">
+      <c r="C49" s="1">
         <v>12.879721</v>
       </c>
-      <c r="D49">
+      <c r="D49" s="1">
         <v>121.774017</v>
       </c>
-      <c r="E49" t="s">
+      <c r="E49" s="1" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A50" t="s">
+    <row r="50" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A50" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="B50" t="s">
+      <c r="B50" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="C50">
+      <c r="C50" s="1">
         <v>61.524009999999997</v>
       </c>
-      <c r="D50">
+      <c r="D50" s="1">
         <v>105.31875599999999</v>
       </c>
-      <c r="E50" t="s">
+      <c r="E50" s="1" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A51" t="s">
+    <row r="51" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A51" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="B51" t="s">
+      <c r="B51" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="C51">
+      <c r="C51" s="1">
         <v>1.3520829999999999</v>
       </c>
-      <c r="D51">
+      <c r="D51" s="1">
         <v>103.819836</v>
       </c>
-      <c r="E51" t="s">
+      <c r="E51" s="1" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A52" t="s">
+    <row r="52" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A52" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="B52" t="s">
+      <c r="B52" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="C52">
+      <c r="C52" s="1">
         <v>35.907756999999997</v>
       </c>
-      <c r="D52">
+      <c r="D52" s="1">
         <v>127.76692199999999</v>
       </c>
-      <c r="E52" t="s">
+      <c r="E52" s="1" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A53" t="s">
+    <row r="53" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A53" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="B53" t="s">
+      <c r="B53" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="C53">
+      <c r="C53" s="1">
         <v>40.463667000000001</v>
       </c>
-      <c r="D53">
+      <c r="D53" s="1">
         <v>-3.7492200000000002</v>
       </c>
-      <c r="E53" t="s">
+      <c r="E53" s="1" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A54" t="s">
+    <row r="54" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A54" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="B54" t="s">
+      <c r="B54" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="C54">
+      <c r="C54" s="1">
         <v>7.8730539999999998</v>
       </c>
-      <c r="D54">
+      <c r="D54" s="1">
         <v>80.771797000000007</v>
       </c>
-      <c r="E54" t="s">
+      <c r="E54" s="1" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A55" t="s">
+    <row r="55" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A55" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="B55" t="s">
+      <c r="B55" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="C55">
+      <c r="C55" s="1">
         <v>60.128160999999999</v>
       </c>
-      <c r="D55">
+      <c r="D55" s="1">
         <v>18.643501000000001</v>
       </c>
-      <c r="E55" t="s">
+      <c r="E55" s="1" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A56" t="s">
+    <row r="56" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A56" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="B56" t="s">
+      <c r="B56" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="C56">
+      <c r="C56" s="1">
         <v>23.69781</v>
       </c>
-      <c r="D56">
+      <c r="D56" s="1">
         <v>120.960515</v>
       </c>
-      <c r="E56" t="s">
+      <c r="E56" s="1" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A57" t="s">
+    <row r="57" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A57" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="B57" t="s">
+      <c r="B57" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="C57">
+      <c r="C57" s="1">
         <v>15.870032</v>
       </c>
-      <c r="D57">
+      <c r="D57" s="1">
         <v>100.992541</v>
       </c>
-      <c r="E57" t="s">
+      <c r="E57" s="1" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A58" t="s">
+    <row r="58" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A58" s="1" t="s">
         <v>93</v>
       </c>
-      <c r="B58" t="s">
+      <c r="B58" s="1" t="s">
         <v>93</v>
       </c>
-      <c r="C58">
+      <c r="C58" s="1">
         <v>55.378050999999999</v>
       </c>
-      <c r="D58">
+      <c r="D58" s="1">
         <v>-3.4359730000000002</v>
       </c>
-      <c r="E58" t="s">
+      <c r="E58" s="1" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A59" t="s">
+    <row r="59" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A59" s="1" t="s">
         <v>79</v>
       </c>
-      <c r="B59" t="s">
+      <c r="B59" s="1" t="s">
         <v>79</v>
       </c>
-      <c r="C59">
+      <c r="C59" s="1">
         <v>23.424075999999999</v>
       </c>
-      <c r="D59">
+      <c r="D59" s="1">
         <v>53.847817999999997</v>
       </c>
-      <c r="E59" t="s">
+      <c r="E59" s="1" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A60" t="s">
+    <row r="60" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A60" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="B60" t="s">
-        <v>38</v>
-      </c>
-      <c r="C60">
+      <c r="B60" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="C60" s="1">
         <v>37.090240000000001</v>
       </c>
-      <c r="D60">
+      <c r="D60" s="1">
         <v>-95.712890999999999</v>
       </c>
-      <c r="E60" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="61" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A61" t="s">
+      <c r="E60" s="1" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A61" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="B61" t="s">
-        <v>38</v>
-      </c>
-      <c r="C61">
+      <c r="B61" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="C61" s="1">
         <v>41.878100000000003</v>
       </c>
-      <c r="D61">
+      <c r="D61" s="1">
         <v>87.629800000000003</v>
       </c>
-      <c r="E61" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="62" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A62" t="s">
+      <c r="E61" s="1" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A62" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="B62" t="s">
-        <v>38</v>
-      </c>
-      <c r="C62">
+      <c r="B62" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="C62" s="1">
         <v>37.090240000000001</v>
       </c>
-      <c r="D62">
+      <c r="D62" s="1">
         <v>-95.712890999999999</v>
       </c>
-      <c r="E62" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="63" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A63" t="s">
+      <c r="E62" s="1" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="63" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A63" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="B63" t="s">
-        <v>38</v>
-      </c>
-      <c r="C63">
+      <c r="B63" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="C63" s="1">
         <v>37.090240000000001</v>
       </c>
-      <c r="D63">
+      <c r="D63" s="1">
         <v>-95.712890999999999</v>
       </c>
-      <c r="E63" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="64" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A64" t="s">
+      <c r="E63" s="1" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="64" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A64" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="B64" t="s">
-        <v>38</v>
-      </c>
-      <c r="C64">
+      <c r="B64" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="C64" s="1">
         <v>37.090240000000001</v>
       </c>
-      <c r="D64">
+      <c r="D64" s="1">
         <v>-95.712890999999999</v>
       </c>
-      <c r="E64" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="65" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A65" t="s">
+      <c r="E64" s="1" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="65" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A65" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="B65" t="s">
+      <c r="B65" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="C65">
+      <c r="C65" s="1">
         <v>14.058324000000001</v>
       </c>
-      <c r="D65">
+      <c r="D65" s="1">
         <v>108.277199</v>
       </c>
-      <c r="E65" t="s">
+      <c r="E65" s="1" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="66" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A66" s="1" t="s">
+    <row r="66" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A66" s="3" t="s">
         <v>95</v>
       </c>
-      <c r="B66" s="1" t="s">
+      <c r="B66" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="C66">
+      <c r="C66" s="1">
         <v>-30.000233000000001</v>
       </c>
-      <c r="D66">
+      <c r="D66" s="1">
         <v>136.20915199999999</v>
       </c>
-      <c r="E66" t="s">
+      <c r="E66" s="1" t="s">
         <v>55</v>
+      </c>
+    </row>
+    <row r="67" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A67" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="B67" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="C67" s="4">
+        <v>42.361145</v>
+      </c>
+      <c r="D67" s="4">
+        <v>-71.057083000000006</v>
+      </c>
+      <c r="E67" s="4" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="68" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A68" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="B68" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="C68" s="4">
+        <v>34.052235000000003</v>
+      </c>
+      <c r="D68" s="4">
+        <v>-118.243683</v>
+      </c>
+      <c r="E68" s="4" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="69" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A69" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="B69" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="C69" s="4">
+        <v>33.787914000000001</v>
+      </c>
+      <c r="D69" s="4">
+        <v>-117.853104</v>
+      </c>
+      <c r="E69" s="4" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="70" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A70" s="4" t="s">
+        <v>99</v>
+      </c>
+      <c r="B70" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="C70" s="4">
+        <v>47.608013</v>
+      </c>
+      <c r="D70" s="4">
+        <v>-122.335167</v>
+      </c>
+      <c r="E70" s="4" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="71" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A71" s="4" t="s">
+        <v>100</v>
+      </c>
+      <c r="B71" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="C71" s="4">
+        <v>33.427204000000003</v>
+      </c>
+      <c r="D71" s="4">
+        <v>-111.939896</v>
+      </c>
+      <c r="E71" s="4" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="72" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A72" s="4" t="s">
+        <v>101</v>
+      </c>
+      <c r="B72" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="C72" s="4">
+        <v>41.878100000000003</v>
+      </c>
+      <c r="D72" s="4">
+        <v>87.629800000000003</v>
+      </c>
+      <c r="E72" s="4" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="73" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A73" s="4" t="s">
+        <v>102</v>
+      </c>
+      <c r="B73" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="C73" s="4">
+        <v>37.354106999999999</v>
+      </c>
+      <c r="D73" s="4">
+        <v>-121.95523799999999</v>
+      </c>
+      <c r="E73" s="4" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="74" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A74" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="B74" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="C74" s="1">
+        <v>51.165691000000002</v>
+      </c>
+      <c r="D74" s="1">
+        <v>10.451525999999999</v>
+      </c>
+      <c r="E74" s="1" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="75" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A75" s="4" t="s">
+        <v>103</v>
+      </c>
+      <c r="B75" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="C75" s="4">
+        <v>43.653199999999998</v>
+      </c>
+      <c r="D75" s="4">
+        <v>79.383200000000002</v>
+      </c>
+      <c r="E75" s="4" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="76" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A76" s="4" t="s">
+        <v>104</v>
+      </c>
+      <c r="B76" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="C76" s="4">
+        <v>26.1326</v>
+      </c>
+      <c r="D76" s="4">
+        <v>97.631100000000004</v>
+      </c>
+      <c r="E76" s="4" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="77" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A77" s="4" t="s">
+        <v>105</v>
+      </c>
+      <c r="B77" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="C77" s="4">
+        <v>42.984900000000003</v>
+      </c>
+      <c r="D77" s="4">
+        <v>81.2453</v>
+      </c>
+      <c r="E77" s="4" t="s">
+        <v>106</v>
       </c>
     </row>
   </sheetData>
   <sortState ref="A1:E65">
     <sortCondition ref="B44"/>
   </sortState>
+  <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/global_coord_master.xlsx
+++ b/global_coord_master.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="231" uniqueCount="107">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="235" uniqueCount="110">
   <si>
     <t>Hubei</t>
   </si>
@@ -341,6 +341,16 @@
   <si>
     <t>CA</t>
     <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>Belgium</t>
+  </si>
+  <si>
+    <t>50.8505 </t>
+  </si>
+  <si>
+    <t>BG</t>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -727,7 +737,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -735,10 +745,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E77"/>
+  <dimension ref="A1:E78"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A48" workbookViewId="0">
-      <selection activeCell="A76" sqref="A76"/>
+    <sheetView tabSelected="1" topLeftCell="A56" workbookViewId="0">
+      <selection activeCell="C69" sqref="C69"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="17.25" x14ac:dyDescent="0.3"/>
@@ -802,7 +812,7 @@
         <v>54</v>
       </c>
       <c r="C4" s="1">
-        <v>20.9176</v>
+        <v>-20.9176</v>
       </c>
       <c r="D4" s="1">
         <v>142.7028</v>
@@ -2050,6 +2060,23 @@
       </c>
       <c r="E77" s="4" t="s">
         <v>106</v>
+      </c>
+    </row>
+    <row r="78" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A78" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="B78" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="C78" t="s">
+        <v>108</v>
+      </c>
+      <c r="D78">
+        <v>4.3487999999999998</v>
+      </c>
+      <c r="E78" s="4" t="s">
+        <v>109</v>
       </c>
     </row>
   </sheetData>

--- a/global_coord_master.xlsx
+++ b/global_coord_master.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="7" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="17700" yWindow="2475" windowWidth="20625" windowHeight="13740"/>
+    <workbookView xWindow="17700" yWindow="2535" windowWidth="20625" windowHeight="13680"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -745,15 +745,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E78"/>
+  <dimension ref="A1:F78"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A56" workbookViewId="0">
-      <selection activeCell="C69" sqref="C69"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E18" sqref="E18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="17.25" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>54</v>
       </c>
@@ -769,8 +769,11 @@
       <c r="E1" s="1" t="s">
         <v>55</v>
       </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F1">
+        <v>57373.686684128101</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>69</v>
       </c>
@@ -786,8 +789,11 @@
       <c r="E2" s="1" t="s">
         <v>55</v>
       </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F2">
+        <v>57373.686684128101</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>70</v>
       </c>
@@ -803,8 +809,11 @@
       <c r="E3" s="1" t="s">
         <v>55</v>
       </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F3">
+        <v>57373.686684128101</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>76</v>
       </c>
@@ -820,8 +829,11 @@
       <c r="E4" s="1" t="s">
         <v>55</v>
       </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F4">
+        <v>57373.686684128101</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
         <v>65</v>
       </c>
@@ -837,8 +849,11 @@
       <c r="E5" s="1" t="s">
         <v>66</v>
       </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F5">
+        <v>1510.3248705763999</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
         <v>62</v>
       </c>
@@ -854,8 +869,11 @@
       <c r="E6" s="1" t="s">
         <v>64</v>
       </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F6">
+        <v>46232.989622696703</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
         <v>74</v>
       </c>
@@ -871,8 +889,11 @@
       <c r="E7" s="1" t="s">
         <v>64</v>
       </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F7">
+        <v>46232.989622696703</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
         <v>77</v>
       </c>
@@ -888,8 +909,11 @@
       <c r="E8" s="1" t="s">
         <v>78</v>
       </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F8">
+        <v>50152.340141130298</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
         <v>50</v>
       </c>
@@ -905,8 +929,11 @@
       <c r="E9" s="1" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F9">
+        <v>41463.644022703404</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
         <v>71</v>
       </c>
@@ -922,8 +949,11 @@
       <c r="E10" s="1" t="s">
         <v>73</v>
       </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F10">
+        <v>47603.027632875703</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
         <v>28</v>
       </c>
@@ -939,8 +969,11 @@
       <c r="E11" s="1" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F11">
+        <v>48675.6164599767</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
         <v>83</v>
       </c>
@@ -956,8 +989,11 @@
       <c r="E12" s="1" t="s">
         <v>84</v>
       </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F12">
+        <v>2009.9788572703901</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
         <v>85</v>
       </c>
@@ -973,8 +1009,11 @@
       <c r="E13" s="1" t="s">
         <v>86</v>
       </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F13">
+        <v>34483.203999204299</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
         <v>40</v>
       </c>
@@ -990,8 +1029,11 @@
       <c r="E14" s="1" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F14">
+        <v>39289.958434635802</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A15" s="1" t="s">
         <v>30</v>
       </c>
@@ -1007,8 +1049,11 @@
       <c r="E15" s="1" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F15">
+        <v>87208.535912642998</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
         <v>0</v>
       </c>
@@ -1024,8 +1069,11 @@
       <c r="E16" s="1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F16">
+        <v>9770.8470878331409</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A17" s="1" t="s">
         <v>3</v>
       </c>
@@ -1041,8 +1089,11 @@
       <c r="E17" s="1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F17">
+        <v>9770.8470878331409</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A18" s="1" t="s">
         <v>4</v>
       </c>
@@ -1058,8 +1109,11 @@
       <c r="E18" s="1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F18">
+        <v>9770.8470878331409</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
         <v>5</v>
       </c>
@@ -1075,8 +1129,11 @@
       <c r="E19" s="1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F19">
+        <v>9770.8470878331409</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
         <v>6</v>
       </c>
@@ -1092,8 +1149,11 @@
       <c r="E20" s="1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F20">
+        <v>9770.8470878331409</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A21" s="1" t="s">
         <v>7</v>
       </c>
@@ -1109,8 +1169,11 @@
       <c r="E21" s="1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F21">
+        <v>9770.8470878331409</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
         <v>8</v>
       </c>
@@ -1126,8 +1189,11 @@
       <c r="E22" s="1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F22">
+        <v>9770.8470878331409</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A23" s="1" t="s">
         <v>9</v>
       </c>
@@ -1143,8 +1209,11 @@
       <c r="E23" s="1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F23">
+        <v>9770.8470878331409</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
         <v>10</v>
       </c>
@@ -1160,8 +1229,11 @@
       <c r="E24" s="1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F24">
+        <v>9770.8470878331409</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
         <v>11</v>
       </c>
@@ -1177,8 +1249,11 @@
       <c r="E25" s="1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F25">
+        <v>9770.8470878331409</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A26" s="1" t="s">
         <v>12</v>
       </c>
@@ -1194,8 +1269,11 @@
       <c r="E26" s="1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F26">
+        <v>9770.8470878331409</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A27" s="1" t="s">
         <v>13</v>
       </c>
@@ -1211,8 +1289,11 @@
       <c r="E27" s="1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F27">
+        <v>9770.8470878331409</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
         <v>14</v>
       </c>
@@ -1228,8 +1309,11 @@
       <c r="E28" s="1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F28">
+        <v>9770.8470878331409</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A29" s="1" t="s">
         <v>15</v>
       </c>
@@ -1245,8 +1329,11 @@
       <c r="E29" s="1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F29">
+        <v>9770.8470878331409</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A30" s="1" t="s">
         <v>16</v>
       </c>
@@ -1262,8 +1349,11 @@
       <c r="E30" s="1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F30">
+        <v>9770.8470878331409</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A31" s="1" t="s">
         <v>17</v>
       </c>
@@ -1279,8 +1369,11 @@
       <c r="E31" s="1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F31">
+        <v>9770.8470878331409</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A32" s="1" t="s">
         <v>18</v>
       </c>
@@ -1296,8 +1389,11 @@
       <c r="E32" s="1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F32">
+        <v>9770.8470878331409</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A33" s="1" t="s">
         <v>19</v>
       </c>
@@ -1313,8 +1409,11 @@
       <c r="E33" s="1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F33">
+        <v>9770.8470878331409</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A34" s="1" t="s">
         <v>20</v>
       </c>
@@ -1330,8 +1429,11 @@
       <c r="E34" s="1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F34">
+        <v>9770.8470878331409</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A35" s="1" t="s">
         <v>21</v>
       </c>
@@ -1347,8 +1449,11 @@
       <c r="E35" s="1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F35">
+        <v>9770.8470878331409</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A36" s="1" t="s">
         <v>22</v>
       </c>
@@ -1364,8 +1469,11 @@
       <c r="E36" s="1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F36">
+        <v>9770.8470878331409</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A37" s="1" t="s">
         <v>23</v>
       </c>
@@ -1381,8 +1489,11 @@
       <c r="E37" s="1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F37">
+        <v>9770.8470878331409</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A38" s="1" t="s">
         <v>24</v>
       </c>
@@ -1398,8 +1509,11 @@
       <c r="E38" s="1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F38">
+        <v>9770.8470878331409</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A39" s="1" t="s">
         <v>27</v>
       </c>
@@ -1415,8 +1529,11 @@
       <c r="E39" s="1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F39">
+        <v>9770.8470878331409</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A40" s="1" t="s">
         <v>32</v>
       </c>
@@ -1432,8 +1549,11 @@
       <c r="E40" s="1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F40">
+        <v>9770.8470878331409</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A41" s="1" t="s">
         <v>33</v>
       </c>
@@ -1449,8 +1569,11 @@
       <c r="E41" s="1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F41">
+        <v>9770.8470878331409</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A42" s="1" t="s">
         <v>34</v>
       </c>
@@ -1466,8 +1589,11 @@
       <c r="E42" s="1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F42">
+        <v>9770.8470878331409</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A43" s="1" t="s">
         <v>35</v>
       </c>
@@ -1483,8 +1609,11 @@
       <c r="E43" s="1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F43">
+        <v>9770.8470878331409</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A44" s="1" t="s">
         <v>36</v>
       </c>
@@ -1500,8 +1629,11 @@
       <c r="E44" s="1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F44">
+        <v>9770.8470878331409</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A45" s="1" t="s">
         <v>52</v>
       </c>
@@ -1517,8 +1649,11 @@
       <c r="E45" s="1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F45">
+        <v>9770.8470878331409</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A46" s="1" t="s">
         <v>75</v>
       </c>
@@ -1534,8 +1669,11 @@
       <c r="E46" s="1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F46">
+        <v>9770.8470878331409</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A47" s="1" t="s">
         <v>58</v>
       </c>
@@ -1551,8 +1689,11 @@
       <c r="E47" s="1" t="s">
         <v>59</v>
       </c>
-    </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F47">
+        <v>11373.2330025676</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A48" s="1" t="s">
         <v>56</v>
       </c>
@@ -1568,8 +1709,11 @@
       <c r="E48" s="1" t="s">
         <v>57</v>
       </c>
-    </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F48">
+        <v>1033.9124308263399</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A49" s="1" t="s">
         <v>81</v>
       </c>
@@ -1585,8 +1729,11 @@
       <c r="E49" s="1" t="s">
         <v>82</v>
       </c>
-    </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F49">
+        <v>3102.71336329931</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A50" s="1" t="s">
         <v>89</v>
       </c>
@@ -1602,8 +1749,11 @@
       <c r="E50" s="1" t="s">
         <v>90</v>
       </c>
-    </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F50">
+        <v>11288.8724435206</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A51" s="1" t="s">
         <v>46</v>
       </c>
@@ -1619,8 +1769,11 @@
       <c r="E51" s="1" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F51">
+        <v>64581.944018395399</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A52" s="1" t="s">
         <v>44</v>
       </c>
@@ -1636,8 +1789,11 @@
       <c r="E52" s="1" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F52">
+        <v>31362.751472939999</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A53" s="1" t="s">
         <v>91</v>
       </c>
@@ -1653,8 +1809,11 @@
       <c r="E53" s="1" t="s">
         <v>92</v>
       </c>
-    </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F53">
+        <v>30370.8923252247</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A54" s="1" t="s">
         <v>67</v>
       </c>
@@ -1670,8 +1829,11 @@
       <c r="E54" s="1" t="s">
         <v>68</v>
       </c>
-    </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F54">
+        <v>4102.4813501446697</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A55" s="1" t="s">
         <v>87</v>
       </c>
@@ -1687,8 +1849,11 @@
       <c r="E55" s="1" t="s">
         <v>88</v>
       </c>
-    </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F55">
+        <v>54608.360254690597</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A56" s="1" t="s">
         <v>25</v>
       </c>
@@ -1704,8 +1869,11 @@
       <c r="E56" s="1" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F56">
+        <v>25008</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A57" s="1" t="s">
         <v>42</v>
       </c>
@@ -1721,8 +1889,11 @@
       <c r="E57" s="1" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F57">
+        <v>7273.5632073209199</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A58" s="1" t="s">
         <v>93</v>
       </c>
@@ -1738,8 +1909,11 @@
       <c r="E58" s="1" t="s">
         <v>94</v>
       </c>
-    </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F58">
+        <v>42943.902269805301</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A59" s="1" t="s">
         <v>79</v>
       </c>
@@ -1755,8 +1929,11 @@
       <c r="E59" s="1" t="s">
         <v>80</v>
       </c>
-    </row>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F59">
+        <v>43004.953358484803</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A60" s="1" t="s">
         <v>37</v>
       </c>
@@ -1772,8 +1949,11 @@
       <c r="E60" s="1" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="61" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F60">
+        <v>62794.585652239803</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A61" s="1" t="s">
         <v>39</v>
       </c>
@@ -1789,8 +1969,11 @@
       <c r="E61" s="1" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="62" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F61">
+        <v>62794.585652239803</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A62" s="1" t="s">
         <v>53</v>
       </c>
@@ -1806,8 +1989,11 @@
       <c r="E62" s="1" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="63" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F62">
+        <v>62794.585652239803</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A63" s="1" t="s">
         <v>60</v>
       </c>
@@ -1823,8 +2009,11 @@
       <c r="E63" s="1" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="64" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F63">
+        <v>62794.585652239803</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A64" s="1" t="s">
         <v>61</v>
       </c>
@@ -1840,8 +2029,11 @@
       <c r="E64" s="1" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="65" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F64">
+        <v>62794.585652239803</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A65" s="1" t="s">
         <v>48</v>
       </c>
@@ -1857,8 +2049,11 @@
       <c r="E65" s="1" t="s">
         <v>49</v>
       </c>
-    </row>
-    <row r="66" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F65">
+        <v>2566.59694958511</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A66" s="3" t="s">
         <v>95</v>
       </c>
@@ -1874,8 +2069,11 @@
       <c r="E66" s="1" t="s">
         <v>55</v>
       </c>
-    </row>
-    <row r="67" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F66">
+        <v>57373.686684128101</v>
+      </c>
+    </row>
+    <row r="67" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A67" s="4" t="s">
         <v>96</v>
       </c>
@@ -1891,8 +2089,11 @@
       <c r="E67" s="4" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="68" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F67">
+        <v>62794.585652239803</v>
+      </c>
+    </row>
+    <row r="68" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A68" s="4" t="s">
         <v>97</v>
       </c>
@@ -1908,8 +2109,11 @@
       <c r="E68" s="4" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="69" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F68">
+        <v>62794.585652239803</v>
+      </c>
+    </row>
+    <row r="69" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A69" s="4" t="s">
         <v>98</v>
       </c>
@@ -1925,8 +2129,11 @@
       <c r="E69" s="4" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="70" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F69">
+        <v>62794.585652239803</v>
+      </c>
+    </row>
+    <row r="70" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A70" s="4" t="s">
         <v>99</v>
       </c>
@@ -1942,8 +2149,11 @@
       <c r="E70" s="4" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="71" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F70">
+        <v>62794.585652239803</v>
+      </c>
+    </row>
+    <row r="71" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A71" s="4" t="s">
         <v>100</v>
       </c>
@@ -1959,8 +2169,11 @@
       <c r="E71" s="4" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="72" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F71">
+        <v>62794.585652239803</v>
+      </c>
+    </row>
+    <row r="72" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A72" s="4" t="s">
         <v>101</v>
       </c>
@@ -1976,8 +2189,11 @@
       <c r="E72" s="4" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="73" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F72">
+        <v>62794.585652239803</v>
+      </c>
+    </row>
+    <row r="73" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A73" s="4" t="s">
         <v>102</v>
       </c>
@@ -1993,8 +2209,11 @@
       <c r="E73" s="4" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="74" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F73">
+        <v>62794.585652239803</v>
+      </c>
+    </row>
+    <row r="74" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A74" s="1" t="s">
         <v>72</v>
       </c>
@@ -2010,8 +2229,11 @@
       <c r="E74" s="1" t="s">
         <v>73</v>
       </c>
-    </row>
-    <row r="75" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F74">
+        <v>47603.027632875703</v>
+      </c>
+    </row>
+    <row r="75" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A75" s="4" t="s">
         <v>103</v>
       </c>
@@ -2027,8 +2249,11 @@
       <c r="E75" s="4" t="s">
         <v>106</v>
       </c>
-    </row>
-    <row r="76" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F75">
+        <v>46232.989622696703</v>
+      </c>
+    </row>
+    <row r="76" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A76" s="4" t="s">
         <v>104</v>
       </c>
@@ -2044,8 +2269,11 @@
       <c r="E76" s="4" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="77" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F76">
+        <v>62794.585652239803</v>
+      </c>
+    </row>
+    <row r="77" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A77" s="4" t="s">
         <v>105</v>
       </c>
@@ -2061,8 +2289,11 @@
       <c r="E77" s="4" t="s">
         <v>106</v>
       </c>
-    </row>
-    <row r="78" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F77">
+        <v>46232.989622696703</v>
+      </c>
+    </row>
+    <row r="78" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A78" s="4" t="s">
         <v>107</v>
       </c>
@@ -2077,6 +2308,9 @@
       </c>
       <c r="E78" s="4" t="s">
         <v>109</v>
+      </c>
+      <c r="F78">
+        <v>47518.636038891404</v>
       </c>
     </row>
   </sheetData>
